--- a/data/trans_bre/P7_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-1,71</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>1,26</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,31%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,72%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>1,3%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-1,25%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 3,83</t>
+          <t>-7,63; 3,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,91</t>
+          <t>0,59; 5,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 3,89</t>
+          <t>-1,47; 9,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 3,51</t>
+          <t>-3,19; 6,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 5,4</t>
+          <t>-4,65; 0,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 3,99</t>
+          <t>-2,0; 6,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,16</t>
+          <t>-4,64; 1,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 4,08</t>
+          <t>-7,77; 3,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 3,68</t>
+          <t>0,59; 5,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 5,84</t>
+          <t>-1,5; 10,2</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 6,82</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,68; 0,76</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,03; 6,69</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-4,65; 1,93</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>1,59</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5,58</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>5,79%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>1,6%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,58%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>2,52%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0,09%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>1,7%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>6,24%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 11,27</t>
+          <t>1,17; 12,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 5,87</t>
+          <t>-3,19; 5,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 7,49</t>
+          <t>-1,55; 7,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 5,78</t>
+          <t>-4,16; 5,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 8,51</t>
+          <t>-5,9; 5,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 13,09</t>
+          <t>-5,23; 8,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 6,47</t>
+          <t>-0,59; 12,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 8,36</t>
+          <t>1,27; 13,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 6,49</t>
+          <t>-3,31; 6,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 9,6</t>
+          <t>-1,59; 8,16</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-4,34; 6,17</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-6,17; 6,71</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-5,46; 9,49</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 14,59</t>
         </is>
       </c>
     </row>
@@ -881,47 +993,67 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>5,99</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>5,27</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4,98</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>4,44%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>6,44%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>4,84%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>5,2%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3,05%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6,7%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>5,72%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5,54%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 8,09</t>
+          <t>0,65; 7,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,03; 9,8</t>
+          <t>3,24; 10,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 7,98</t>
+          <t>0,95; 8,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 6,38</t>
+          <t>-0,8; 6,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 9,72</t>
+          <t>0,72; 16,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 9,03</t>
+          <t>1,48; 10,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,14; 10,94</t>
+          <t>0,5; 10,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 8,96</t>
+          <t>0,68; 8,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 7,08</t>
+          <t>3,38; 12,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 11,06</t>
+          <t>1,03; 9,66</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 7,08</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 20,25</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,55; 11,28</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 12,46</t>
         </is>
       </c>
     </row>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>2,35</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3,9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7,06</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3,86</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>2,71</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,06</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,34</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,71</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>2,45%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,94%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>4,48%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>4,31%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8,02%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4,19%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>2,96%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3,57%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 6,23</t>
+          <t>-1,69; 6,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 7,58</t>
+          <t>-1,83; 6,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 8,24</t>
+          <t>0,05; 8,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 12,45</t>
+          <t>2,4; 12,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 7,67</t>
+          <t>0,22; 7,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 6,88</t>
+          <t>-1,98; 8,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 8,57</t>
+          <t>-1,8; 8,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 9,52</t>
+          <t>-1,74; 6,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,05; 14,85</t>
+          <t>-1,91; 7,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 8,69</t>
+          <t>0,16; 9,42</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2,66; 14,62</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 8,82</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 9,49</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-1,95; 10,1</t>
         </is>
       </c>
     </row>
@@ -1116,52 +1308,72 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,74</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,52</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,71</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>-4,51%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-5,22%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-4,98%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,12%</t>
+          <t>-5,52%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>-4,88%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-4,67%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-2,38%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
           <t>1,18%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>4,23%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 1,37</t>
+          <t>-9,62; 2,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 3,78</t>
+          <t>-11,21; 3,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 3,08</t>
+          <t>-10,6; 2,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 2,63</t>
+          <t>-10,46; 3,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 8,04</t>
+          <t>-9,15; 4,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 1,52</t>
+          <t>-5,59; 7,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 4,49</t>
+          <t>-3,78; 10,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 3,29</t>
+          <t>-10,19; 2,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 2,87</t>
+          <t>-12,08; 3,87</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 9,55</t>
+          <t>-11,36; 2,4</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-11,13; 3,61</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-9,98; 5,44</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-6,28; 9,45</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; 13,52</t>
         </is>
       </c>
     </row>
@@ -1241,47 +1473,67 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-12,94</t>
+          <t>-12,81</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-12,76</t>
+          <t>-12,92</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-13,19</t>
+          <t>-13,83</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-21,88</t>
+          <t>-14,69</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-21,91</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-15,86</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>-8,76%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-14,35%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-14,15%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-14,84%</t>
+          <t>-14,28%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-25,59%</t>
+          <t>-14,32%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-15,5%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-16,86%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-25,63%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-18,45%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,8; -0,53</t>
+          <t>-13,55; -0,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,81; -4,97</t>
+          <t>-20,0; -5,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,51; -6,54</t>
+          <t>-18,79; -6,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,3; -5,54</t>
+          <t>-20,32; -7,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,66; -10,74</t>
+          <t>-23,96; -4,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,5; -0,94</t>
+          <t>-33,48; -10,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,62; -5,94</t>
+          <t>-26,24; -6,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,02; -7,31</t>
+          <t>-14,87; -0,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-22,35; -6,44</t>
+          <t>-21,66; -5,74</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-37,86; -12,83</t>
+          <t>-20,38; -7,3</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-22,34; -8,24</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-26,66; -5,84</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-38,07; -13,02</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-29,39; -8,14</t>
         </is>
       </c>
     </row>
@@ -1361,47 +1633,67 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
+          <t>-3,16</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-1,07</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>-0,41%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
+      <c r="K16" s="2" t="inlineStr">
         <is>
           <t>-1,42%</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-1,22%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>-1,43%</t>
-        </is>
-      </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-3,46%</t>
+          <t>-1,01%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,47%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-2,02%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-3,47%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-1,19%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,64</t>
+          <t>-2,48; 1,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 1,02</t>
+          <t>-3,43; 1,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 1,14</t>
+          <t>-3,15; 1,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 0,85</t>
+          <t>-3,47; 1,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 0,03</t>
+          <t>-4,59; 1,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 1,8</t>
+          <t>-6,6; 0,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 1,11</t>
+          <t>-4,06; 1,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 1,21</t>
+          <t>-2,66; 1,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 0,95</t>
+          <t>-3,67; 1,16</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 0,03</t>
+          <t>-3,41; 1,38</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,73; 1,1</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-5,0; 1,23</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-7,18; 0,15</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-4,51; 2,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
